--- a/data/pca/factorExposure/factorExposure_2019-04-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1312596568628279</v>
+        <v>0.0785395098245447</v>
       </c>
       <c r="C2">
-        <v>0.001976700530723018</v>
+        <v>-0.03835739280571526</v>
       </c>
       <c r="D2">
-        <v>0.04381184149259881</v>
+        <v>-0.01351352831079729</v>
       </c>
       <c r="E2">
-        <v>0.1057272172043886</v>
+        <v>-0.03831264153899183</v>
       </c>
       <c r="F2">
-        <v>0.1079090490120524</v>
+        <v>0.1399588427463421</v>
       </c>
       <c r="G2">
-        <v>-0.01923782415387262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1128375112225476</v>
+      </c>
+      <c r="H2">
+        <v>0.0525915125132538</v>
+      </c>
+      <c r="I2">
+        <v>-0.02894009491180824</v>
+      </c>
+      <c r="J2">
+        <v>-0.07393293492884787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2294186074161746</v>
+        <v>0.169985232502106</v>
       </c>
       <c r="C3">
-        <v>-0.1101917973817452</v>
+        <v>-0.09763119167119705</v>
       </c>
       <c r="D3">
-        <v>-0.04642821959348589</v>
+        <v>0.03099741128017669</v>
       </c>
       <c r="E3">
-        <v>0.3210401603879341</v>
+        <v>0.02404557160427217</v>
       </c>
       <c r="F3">
-        <v>0.02918085054935637</v>
+        <v>0.3671391562437243</v>
       </c>
       <c r="G3">
-        <v>-0.1161957593064356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1049108431764379</v>
+      </c>
+      <c r="H3">
+        <v>0.2831959186446861</v>
+      </c>
+      <c r="I3">
+        <v>-0.2093020171334206</v>
+      </c>
+      <c r="J3">
+        <v>-0.2649451180937489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09993198266487587</v>
+        <v>0.07491401677665445</v>
       </c>
       <c r="C4">
-        <v>-0.03461745997866694</v>
+        <v>-0.0399202194419759</v>
       </c>
       <c r="D4">
-        <v>0.02393249611238592</v>
+        <v>0.02662947732409023</v>
       </c>
       <c r="E4">
-        <v>0.07209322268220067</v>
+        <v>-0.03350610770864589</v>
       </c>
       <c r="F4">
-        <v>0.03866672188122148</v>
+        <v>0.08153296611597574</v>
       </c>
       <c r="G4">
-        <v>-0.03915402090685705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04745319317361724</v>
+      </c>
+      <c r="H4">
+        <v>0.0246885783032162</v>
+      </c>
+      <c r="I4">
+        <v>-0.03766047657878549</v>
+      </c>
+      <c r="J4">
+        <v>-0.05936906846249124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01753465230110142</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.008404807250037097</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.008851269154803578</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.004133497679906068</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.001922428429770023</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02183084382745559</v>
+      </c>
+      <c r="H6">
+        <v>0.003359727473315817</v>
+      </c>
+      <c r="I6">
+        <v>0.01113815692430734</v>
+      </c>
+      <c r="J6">
+        <v>-0.0008245705073533689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04329518136543309</v>
+        <v>0.0355021478305432</v>
       </c>
       <c r="C7">
-        <v>-0.008312389496033818</v>
+        <v>-0.01010989542622316</v>
       </c>
       <c r="D7">
-        <v>0.03136808910314384</v>
+        <v>0.04028622601944351</v>
       </c>
       <c r="E7">
-        <v>0.07451082113106702</v>
+        <v>-0.02659013646140937</v>
       </c>
       <c r="F7">
-        <v>-0.04793836295884672</v>
+        <v>0.05496935530419477</v>
       </c>
       <c r="G7">
-        <v>0.0004602987507926088</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.003759345098167441</v>
+      </c>
+      <c r="H7">
+        <v>0.04651497992290814</v>
+      </c>
+      <c r="I7">
+        <v>0.004737684639144027</v>
+      </c>
+      <c r="J7">
+        <v>-0.04971231443961638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04385220354754619</v>
+        <v>0.03006550184103636</v>
       </c>
       <c r="C8">
-        <v>-0.04438286467206631</v>
+        <v>-0.04280348074809519</v>
       </c>
       <c r="D8">
-        <v>0.002032334719108744</v>
+        <v>0.0267013260768823</v>
       </c>
       <c r="E8">
-        <v>0.06792388999707898</v>
+        <v>-0.01275154969126719</v>
       </c>
       <c r="F8">
-        <v>0.007710414176549706</v>
+        <v>0.0715311120094425</v>
       </c>
       <c r="G8">
-        <v>-0.02097061620037236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02344110209775434</v>
+      </c>
+      <c r="H8">
+        <v>0.05068087791929251</v>
+      </c>
+      <c r="I8">
+        <v>-0.0371815365088695</v>
+      </c>
+      <c r="J8">
+        <v>-0.06337049312772169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08859261065628211</v>
+        <v>0.06216411273306369</v>
       </c>
       <c r="C9">
-        <v>-0.03492164081869147</v>
+        <v>-0.03539163269645042</v>
       </c>
       <c r="D9">
-        <v>0.03212208323197802</v>
+        <v>0.03002521827146143</v>
       </c>
       <c r="E9">
-        <v>0.05738115743767414</v>
+        <v>-0.03012823639866459</v>
       </c>
       <c r="F9">
-        <v>0.02656668567430309</v>
+        <v>0.08149446969374796</v>
       </c>
       <c r="G9">
-        <v>-0.05678253417614349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0448979135032333</v>
+      </c>
+      <c r="H9">
+        <v>0.02053048752221519</v>
+      </c>
+      <c r="I9">
+        <v>-0.01730051753846227</v>
+      </c>
+      <c r="J9">
+        <v>-0.03855185165569436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.001266597867995782</v>
+        <v>0.02119691995475849</v>
       </c>
       <c r="C10">
-        <v>0.158854450545844</v>
+        <v>0.1458343249928065</v>
       </c>
       <c r="D10">
-        <v>-0.0149169250851892</v>
+        <v>-0.05486813836743368</v>
       </c>
       <c r="E10">
-        <v>0.06764533996192444</v>
+        <v>0.01856232488838499</v>
       </c>
       <c r="F10">
-        <v>0.01775165150566628</v>
+        <v>0.07209405663910962</v>
       </c>
       <c r="G10">
-        <v>0.02181076134461614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0244038391491666</v>
+      </c>
+      <c r="H10">
+        <v>0.0005641409640273193</v>
+      </c>
+      <c r="I10">
+        <v>-0.110517621173047</v>
+      </c>
+      <c r="J10">
+        <v>0.004706937196852086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05836344336753931</v>
+        <v>0.04968384975343947</v>
       </c>
       <c r="C11">
-        <v>-0.007136611963400269</v>
+        <v>-0.02744693519019491</v>
       </c>
       <c r="D11">
-        <v>-0.008242503448600219</v>
+        <v>0.0003364867809873546</v>
       </c>
       <c r="E11">
-        <v>0.03760257292648923</v>
+        <v>-0.005609351855256112</v>
       </c>
       <c r="F11">
-        <v>0.007906968003802568</v>
+        <v>0.03933493619151456</v>
       </c>
       <c r="G11">
-        <v>0.02043029393299366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.009596703397223912</v>
+      </c>
+      <c r="H11">
+        <v>0.001700960844724861</v>
+      </c>
+      <c r="I11">
+        <v>0.01507233676431431</v>
+      </c>
+      <c r="J11">
+        <v>-0.04144887189936783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04512801904966371</v>
+        <v>0.04718486106483401</v>
       </c>
       <c r="C12">
-        <v>-0.01396665200268947</v>
+        <v>-0.0225338583877461</v>
       </c>
       <c r="D12">
-        <v>-0.004683052293455853</v>
+        <v>0.01027292880786375</v>
       </c>
       <c r="E12">
-        <v>0.02715453965930989</v>
+        <v>-0.008446912275243006</v>
       </c>
       <c r="F12">
-        <v>-0.0008947792081410204</v>
+        <v>0.01691412214903734</v>
       </c>
       <c r="G12">
-        <v>-0.001609884445866957</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0003310622979594729</v>
+      </c>
+      <c r="H12">
+        <v>0.002307269843111933</v>
+      </c>
+      <c r="I12">
+        <v>0.01355825682176993</v>
+      </c>
+      <c r="J12">
+        <v>-0.02598179387781354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06544455859148873</v>
+        <v>0.04302406968331076</v>
       </c>
       <c r="C13">
-        <v>-0.01974823480117979</v>
+        <v>-0.03001177160264924</v>
       </c>
       <c r="D13">
-        <v>-0.01140523851790526</v>
+        <v>-0.007231086835094869</v>
       </c>
       <c r="E13">
-        <v>0.1049464256283824</v>
+        <v>-0.006019988150775151</v>
       </c>
       <c r="F13">
-        <v>0.01901735809569962</v>
+        <v>0.1037557478581229</v>
       </c>
       <c r="G13">
-        <v>0.001714555425974224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.0259998385299486</v>
+      </c>
+      <c r="H13">
+        <v>0.04857931341938709</v>
+      </c>
+      <c r="I13">
+        <v>-0.009180307432859022</v>
+      </c>
+      <c r="J13">
+        <v>-0.05966498742691193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0351906649983529</v>
+        <v>0.0272372846308725</v>
       </c>
       <c r="C14">
-        <v>-0.009350589536486154</v>
+        <v>-0.01513042021601164</v>
       </c>
       <c r="D14">
-        <v>0.02010064807255948</v>
+        <v>0.01026535939376082</v>
       </c>
       <c r="E14">
-        <v>0.02287515937494514</v>
+        <v>-0.02310551752087175</v>
       </c>
       <c r="F14">
-        <v>0.007609165314819953</v>
+        <v>0.04012802859949251</v>
       </c>
       <c r="G14">
-        <v>0.02374286068644638</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03284890013117482</v>
+      </c>
+      <c r="H14">
+        <v>0.05110648146530445</v>
+      </c>
+      <c r="I14">
+        <v>-0.008308485579523586</v>
+      </c>
+      <c r="J14">
+        <v>-0.01514876573470918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04819854171065597</v>
+        <v>0.04482414664616353</v>
       </c>
       <c r="C16">
-        <v>-0.02314147766304551</v>
+        <v>-0.03329144730772346</v>
       </c>
       <c r="D16">
-        <v>-0.0130311378273165</v>
+        <v>0.008311293776869852</v>
       </c>
       <c r="E16">
-        <v>0.03196703985010867</v>
+        <v>-0.001964889172678051</v>
       </c>
       <c r="F16">
-        <v>-0.004502903893787621</v>
+        <v>0.03300979279860161</v>
       </c>
       <c r="G16">
-        <v>0.005594511932117179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.002907018252221462</v>
+      </c>
+      <c r="H16">
+        <v>0.008454189209549507</v>
+      </c>
+      <c r="I16">
+        <v>0.01273942068891512</v>
+      </c>
+      <c r="J16">
+        <v>-0.03519150960587668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05370121860217057</v>
+        <v>0.04785494680543399</v>
       </c>
       <c r="C19">
-        <v>-0.03098716220816861</v>
+        <v>-0.04290111212482861</v>
       </c>
       <c r="D19">
-        <v>-0.0054767717858061</v>
+        <v>0.01163360310385391</v>
       </c>
       <c r="E19">
-        <v>0.06994924900484902</v>
+        <v>-0.01391235750876166</v>
       </c>
       <c r="F19">
-        <v>-0.01637279474197002</v>
+        <v>0.08013313146401635</v>
       </c>
       <c r="G19">
-        <v>0.02674366753644838</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01491621183995032</v>
+      </c>
+      <c r="H19">
+        <v>0.08519087948131572</v>
+      </c>
+      <c r="I19">
+        <v>-0.03613728233864259</v>
+      </c>
+      <c r="J19">
+        <v>-0.04716797687836102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03950063107136265</v>
+        <v>0.0188571995545869</v>
       </c>
       <c r="C20">
-        <v>-0.03810300183824051</v>
+        <v>-0.02941275628971637</v>
       </c>
       <c r="D20">
-        <v>0.01363984321128471</v>
+        <v>0.01656783282782708</v>
       </c>
       <c r="E20">
-        <v>0.06180353952854612</v>
+        <v>-0.01625920934296224</v>
       </c>
       <c r="F20">
-        <v>-0.01322404440677718</v>
+        <v>0.06563259552998142</v>
       </c>
       <c r="G20">
-        <v>0.006216186817303541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01830357021277509</v>
+      </c>
+      <c r="H20">
+        <v>0.07326073399503759</v>
+      </c>
+      <c r="I20">
+        <v>-0.01978115467717285</v>
+      </c>
+      <c r="J20">
+        <v>-0.07745366261260324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.04182898351757272</v>
+        <v>0.02433292588552075</v>
       </c>
       <c r="C21">
-        <v>-0.02158498234634418</v>
+        <v>-0.0257921192961817</v>
       </c>
       <c r="D21">
-        <v>0.003334510746525543</v>
+        <v>0.02412652988996804</v>
       </c>
       <c r="E21">
-        <v>0.09004551617797735</v>
+        <v>-0.003883145427854204</v>
       </c>
       <c r="F21">
-        <v>0.0496990771372207</v>
+        <v>0.07736138217813231</v>
       </c>
       <c r="G21">
-        <v>0.009977014770251527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03599657599890568</v>
+      </c>
+      <c r="H21">
+        <v>0.02459083047853992</v>
+      </c>
+      <c r="I21">
+        <v>0.009542967075882865</v>
+      </c>
+      <c r="J21">
+        <v>-0.02948590660483939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.0497512583629796</v>
+        <v>0.04358981446806653</v>
       </c>
       <c r="C24">
-        <v>-0.01565100262417188</v>
+        <v>-0.02246390132048048</v>
       </c>
       <c r="D24">
-        <v>-0.002054305471499208</v>
+        <v>0.005121057296611861</v>
       </c>
       <c r="E24">
-        <v>0.04171347219695557</v>
+        <v>-0.007097603038593217</v>
       </c>
       <c r="F24">
-        <v>-0.002040520230832008</v>
+        <v>0.03969834019260979</v>
       </c>
       <c r="G24">
-        <v>-0.001254736407501966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.002467458802733358</v>
+      </c>
+      <c r="H24">
+        <v>0.007604611722134418</v>
+      </c>
+      <c r="I24">
+        <v>0.01133596878615295</v>
+      </c>
+      <c r="J24">
+        <v>-0.04104316889100016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05043056930387955</v>
+        <v>0.04623387578329408</v>
       </c>
       <c r="C25">
-        <v>-0.006132077099188326</v>
+        <v>-0.02263337862768448</v>
       </c>
       <c r="D25">
-        <v>-0.005030908147534523</v>
+        <v>0.004008794453391738</v>
       </c>
       <c r="E25">
-        <v>0.03999679621670665</v>
+        <v>-0.005365568223749012</v>
       </c>
       <c r="F25">
-        <v>0.008135523272934219</v>
+        <v>0.04360417216425578</v>
       </c>
       <c r="G25">
-        <v>0.008911568287945749</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.004460562344052886</v>
+      </c>
+      <c r="H25">
+        <v>0.001181036219971317</v>
+      </c>
+      <c r="I25">
+        <v>0.01289242548907348</v>
+      </c>
+      <c r="J25">
+        <v>-0.03339176879167291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01376566565957811</v>
+        <v>0.01602516141053702</v>
       </c>
       <c r="C26">
-        <v>-0.02560424544016409</v>
+        <v>-0.02528345343529296</v>
       </c>
       <c r="D26">
-        <v>0.0009125971023435692</v>
+        <v>0.003514089062556881</v>
       </c>
       <c r="E26">
-        <v>0.03448537414389419</v>
+        <v>0.001426020249841359</v>
       </c>
       <c r="F26">
-        <v>0.01935868228864198</v>
+        <v>0.04389223878703081</v>
       </c>
       <c r="G26">
-        <v>0.01828280526408148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02211762190650458</v>
+      </c>
+      <c r="H26">
+        <v>0.03107151696453671</v>
+      </c>
+      <c r="I26">
+        <v>0.005903825118964505</v>
+      </c>
+      <c r="J26">
+        <v>-0.03652380502094807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1169979064908169</v>
+        <v>0.08101629845871111</v>
       </c>
       <c r="C27">
-        <v>-0.0249617974659922</v>
+        <v>-0.03082413361470333</v>
       </c>
       <c r="D27">
-        <v>0.02165932441342104</v>
+        <v>0.01212051690529848</v>
       </c>
       <c r="E27">
-        <v>0.0946873876107048</v>
+        <v>-0.0312514605314308</v>
       </c>
       <c r="F27">
-        <v>0.01160206761398779</v>
+        <v>0.06921770314701058</v>
       </c>
       <c r="G27">
-        <v>-0.008683362255718816</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.0181566357094191</v>
+      </c>
+      <c r="H27">
+        <v>0.008742953955969071</v>
+      </c>
+      <c r="I27">
+        <v>-0.01780478268420499</v>
+      </c>
+      <c r="J27">
+        <v>-0.04342559529848647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.002310989832440811</v>
+        <v>0.03942176176048485</v>
       </c>
       <c r="C28">
-        <v>0.2448868565869556</v>
+        <v>0.2247819570577836</v>
       </c>
       <c r="D28">
-        <v>-0.01839395260530013</v>
+        <v>-0.07462114663727082</v>
       </c>
       <c r="E28">
-        <v>0.04066629888551668</v>
+        <v>0.03022389943290115</v>
       </c>
       <c r="F28">
-        <v>0.02056978228938547</v>
+        <v>0.05833436768094415</v>
       </c>
       <c r="G28">
-        <v>0.003135888845080294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02700460124394443</v>
+      </c>
+      <c r="H28">
+        <v>-0.007667723172103846</v>
+      </c>
+      <c r="I28">
+        <v>-0.1555188622459697</v>
+      </c>
+      <c r="J28">
+        <v>-0.006418264389629933</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02461817566188816</v>
+        <v>0.02202128853635773</v>
       </c>
       <c r="C29">
-        <v>-0.01715782268826172</v>
+        <v>-0.0172865660980136</v>
       </c>
       <c r="D29">
-        <v>0.02660607904025929</v>
+        <v>0.0156512814896056</v>
       </c>
       <c r="E29">
-        <v>0.02168153372701244</v>
+        <v>-0.02491564518060368</v>
       </c>
       <c r="F29">
-        <v>0.01433759266660843</v>
+        <v>0.03563889354817659</v>
       </c>
       <c r="G29">
-        <v>0.01895106673762014</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03495872184288523</v>
+      </c>
+      <c r="H29">
+        <v>0.04701804685102481</v>
+      </c>
+      <c r="I29">
+        <v>0.0001309201562561594</v>
+      </c>
+      <c r="J29">
+        <v>-0.007868536786090789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1053201300542119</v>
+        <v>0.09346013359861061</v>
       </c>
       <c r="C30">
-        <v>-0.0152021497794972</v>
+        <v>-0.05613882700154516</v>
       </c>
       <c r="D30">
-        <v>0.01933019711629934</v>
+        <v>-0.02396619037788026</v>
       </c>
       <c r="E30">
-        <v>0.1146610411919381</v>
+        <v>-0.02927595645729089</v>
       </c>
       <c r="F30">
-        <v>0.01299252409535458</v>
+        <v>0.1028784960364771</v>
       </c>
       <c r="G30">
-        <v>0.03885684319113501</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01252631898401074</v>
+      </c>
+      <c r="H30">
+        <v>0.0189916100584907</v>
+      </c>
+      <c r="I30">
+        <v>0.01395418619615646</v>
+      </c>
+      <c r="J30">
+        <v>-0.03467616481616489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.06010175138751141</v>
+        <v>0.06283782720371633</v>
       </c>
       <c r="C31">
-        <v>-0.01478557657487043</v>
+        <v>-0.02416562496227395</v>
       </c>
       <c r="D31">
-        <v>0.01924910796545558</v>
+        <v>-0.004969683986274179</v>
       </c>
       <c r="E31">
-        <v>-0.01983589683085296</v>
+        <v>-0.0204553087369277</v>
       </c>
       <c r="F31">
-        <v>0.01029034227927425</v>
+        <v>0.001357778051235593</v>
       </c>
       <c r="G31">
-        <v>0.05024652785468281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04383364000209115</v>
+      </c>
+      <c r="H31">
+        <v>0.02938362261720201</v>
+      </c>
+      <c r="I31">
+        <v>-0.007986506574279786</v>
+      </c>
+      <c r="J31">
+        <v>-0.01241493123136453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07077687183630543</v>
+        <v>0.0463827397826045</v>
       </c>
       <c r="C32">
-        <v>-0.03086733786466489</v>
+        <v>-0.0456302750709169</v>
       </c>
       <c r="D32">
-        <v>0.008594886190422134</v>
+        <v>0.0295365503918687</v>
       </c>
       <c r="E32">
-        <v>0.1097467628038812</v>
+        <v>-0.02525425581675523</v>
       </c>
       <c r="F32">
-        <v>-0.003508392452363189</v>
+        <v>0.08724416673819252</v>
       </c>
       <c r="G32">
-        <v>0.02263205244280114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01532313312813507</v>
+      </c>
+      <c r="H32">
+        <v>0.03802068837170157</v>
+      </c>
+      <c r="I32">
+        <v>-0.02038204916881167</v>
+      </c>
+      <c r="J32">
+        <v>-0.04600510326593769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.07122048537802145</v>
+        <v>0.05878796990333909</v>
       </c>
       <c r="C33">
-        <v>-0.03752753952593147</v>
+        <v>-0.05484221274883634</v>
       </c>
       <c r="D33">
-        <v>0.006732967820414107</v>
+        <v>-0.003408942572765864</v>
       </c>
       <c r="E33">
-        <v>0.06840421664853669</v>
+        <v>-0.005773761104985555</v>
       </c>
       <c r="F33">
-        <v>0.04830892228193577</v>
+        <v>0.07658475920649307</v>
       </c>
       <c r="G33">
-        <v>0.01376404112800842</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03883889320533532</v>
+      </c>
+      <c r="H33">
+        <v>0.03587559799649536</v>
+      </c>
+      <c r="I33">
+        <v>0.01480708928551088</v>
+      </c>
+      <c r="J33">
+        <v>-0.0475495317359353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04915319944654852</v>
+        <v>0.04658511866949393</v>
       </c>
       <c r="C34">
-        <v>-0.01494799333234186</v>
+        <v>-0.02872902596185551</v>
       </c>
       <c r="D34">
-        <v>-0.002632386658981886</v>
+        <v>0.01169981620776131</v>
       </c>
       <c r="E34">
-        <v>0.02235925332190048</v>
+        <v>-0.01315466659566062</v>
       </c>
       <c r="F34">
-        <v>-0.004115076523900968</v>
+        <v>0.03041889070426406</v>
       </c>
       <c r="G34">
-        <v>0.008639928986270846</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.003781923317717501</v>
+      </c>
+      <c r="H34">
+        <v>0.01073446177256218</v>
+      </c>
+      <c r="I34">
+        <v>0.01287740939146585</v>
+      </c>
+      <c r="J34">
+        <v>-0.03049585619737266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01303789248008602</v>
+        <v>0.01606770818862778</v>
       </c>
       <c r="C36">
-        <v>0.007937569762888438</v>
+        <v>-0.001046860414310787</v>
       </c>
       <c r="D36">
-        <v>0.006782109445335181</v>
+        <v>0.004861844391785084</v>
       </c>
       <c r="E36">
-        <v>0.02140034756631645</v>
+        <v>-0.008535268107199644</v>
       </c>
       <c r="F36">
-        <v>0.007633860410847436</v>
+        <v>0.02783502083392618</v>
       </c>
       <c r="G36">
-        <v>0.01525314812880451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02466527955099493</v>
+      </c>
+      <c r="H36">
+        <v>0.02713552522886861</v>
+      </c>
+      <c r="I36">
+        <v>0.005291025935941643</v>
+      </c>
+      <c r="J36">
+        <v>-0.0009591604696825276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05654740625958907</v>
+        <v>0.03529737040731511</v>
       </c>
       <c r="C38">
-        <v>-0.009926764820453711</v>
+        <v>-0.01356487712393632</v>
       </c>
       <c r="D38">
-        <v>0.02356186778878742</v>
+        <v>0.006964278102258166</v>
       </c>
       <c r="E38">
-        <v>0.03375880824010516</v>
+        <v>-0.0107056715120614</v>
       </c>
       <c r="F38">
-        <v>0.001198085625380738</v>
+        <v>0.05027316079854117</v>
       </c>
       <c r="G38">
-        <v>-0.02799592792423481</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02704241256727156</v>
+      </c>
+      <c r="H38">
+        <v>0.01321710312515591</v>
+      </c>
+      <c r="I38">
+        <v>0.01158217121523333</v>
+      </c>
+      <c r="J38">
+        <v>-0.0006437023910099228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07577510758463295</v>
+        <v>0.05841279314243763</v>
       </c>
       <c r="C39">
-        <v>-0.01332434474516824</v>
+        <v>-0.04125793467591701</v>
       </c>
       <c r="D39">
-        <v>0.001468588057517231</v>
+        <v>0.006184514380680758</v>
       </c>
       <c r="E39">
-        <v>0.03925726950103283</v>
+        <v>-0.01390830973355403</v>
       </c>
       <c r="F39">
-        <v>0.02068322498516134</v>
+        <v>0.05575138171629318</v>
       </c>
       <c r="G39">
-        <v>0.008740240610485291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01818243622754579</v>
+      </c>
+      <c r="H39">
+        <v>0.0007876101739803649</v>
+      </c>
+      <c r="I39">
+        <v>0.03496081597678127</v>
+      </c>
+      <c r="J39">
+        <v>-0.0441563604884786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07780891363380012</v>
+        <v>0.0575309068381484</v>
       </c>
       <c r="C40">
-        <v>-0.0342029081192935</v>
+        <v>-0.04779661449177579</v>
       </c>
       <c r="D40">
-        <v>0.004022389875657855</v>
+        <v>-0.007619296668220899</v>
       </c>
       <c r="E40">
-        <v>0.09961148610129511</v>
+        <v>-0.01956373427681466</v>
       </c>
       <c r="F40">
-        <v>0.03251578900405738</v>
+        <v>0.09482074566723399</v>
       </c>
       <c r="G40">
-        <v>-0.03806736027007641</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02800530573897012</v>
+      </c>
+      <c r="H40">
+        <v>0.05383585064692217</v>
+      </c>
+      <c r="I40">
+        <v>-0.008252522933050038</v>
+      </c>
+      <c r="J40">
+        <v>-0.11705779235732</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.004540835084749073</v>
+        <v>0.002930179486629664</v>
       </c>
       <c r="C41">
-        <v>-0.01183518220305253</v>
+        <v>-0.01035414769680332</v>
       </c>
       <c r="D41">
-        <v>0.02149966706198082</v>
+        <v>0.004068286132010128</v>
       </c>
       <c r="E41">
-        <v>0.0102418609984165</v>
+        <v>-0.006855698973454775</v>
       </c>
       <c r="F41">
-        <v>0.02986396154644289</v>
+        <v>0.01424268337244979</v>
       </c>
       <c r="G41">
-        <v>0.0226163702435365</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03989546534491084</v>
+      </c>
+      <c r="H41">
+        <v>0.03011885219038828</v>
+      </c>
+      <c r="I41">
+        <v>-0.01863447697182318</v>
+      </c>
+      <c r="J41">
+        <v>-0.01034701273473762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1236536071983949</v>
+        <v>0.2153490228363907</v>
       </c>
       <c r="C42">
-        <v>-0.1842150259604999</v>
+        <v>-0.1663398573619856</v>
       </c>
       <c r="D42">
-        <v>-0.9331904945305808</v>
+        <v>-0.01845386274208379</v>
       </c>
       <c r="E42">
-        <v>-0.07965080100689409</v>
+        <v>0.9329059097984093</v>
       </c>
       <c r="F42">
-        <v>-0.03396925741064205</v>
+        <v>-0.1572581921815637</v>
       </c>
       <c r="G42">
-        <v>0.07176079848378927</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.005507254974822186</v>
+      </c>
+      <c r="H42">
+        <v>-0.000480563344652549</v>
+      </c>
+      <c r="I42">
+        <v>-0.04900108008394113</v>
+      </c>
+      <c r="J42">
+        <v>-0.02235341783853414</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008251522364663349</v>
+        <v>0.005269454668749235</v>
       </c>
       <c r="C43">
-        <v>-0.01652598752559621</v>
+        <v>-0.0147900642626888</v>
       </c>
       <c r="D43">
-        <v>0.01463840109802516</v>
+        <v>0.002713342835212447</v>
       </c>
       <c r="E43">
-        <v>0.03403277130322038</v>
+        <v>-0.006854200488876016</v>
       </c>
       <c r="F43">
-        <v>0.00702610492937746</v>
+        <v>0.02815863572067248</v>
       </c>
       <c r="G43">
-        <v>0.01848701727213968</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02266082485642854</v>
+      </c>
+      <c r="H43">
+        <v>0.03045835708597263</v>
+      </c>
+      <c r="I43">
+        <v>-0.01131313135212969</v>
+      </c>
+      <c r="J43">
+        <v>-0.01920337355018682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04080670131506909</v>
+        <v>0.02859131226092115</v>
       </c>
       <c r="C44">
-        <v>-0.04204250926178136</v>
+        <v>-0.04130060042553439</v>
       </c>
       <c r="D44">
-        <v>0.01066707075337602</v>
+        <v>0.01493126144146979</v>
       </c>
       <c r="E44">
-        <v>0.1169045959376965</v>
+        <v>-0.005874907859269006</v>
       </c>
       <c r="F44">
-        <v>0.09473988834429869</v>
+        <v>0.1210115280755328</v>
       </c>
       <c r="G44">
-        <v>0.02904251255047334</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06649096469401439</v>
+      </c>
+      <c r="H44">
+        <v>0.100113194782821</v>
+      </c>
+      <c r="I44">
+        <v>-0.02833749330844764</v>
+      </c>
+      <c r="J44">
+        <v>-0.02942026021025891</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02769267150174066</v>
+        <v>0.02509396201458274</v>
       </c>
       <c r="C46">
-        <v>-0.01561016814338875</v>
+        <v>-0.03445194656560525</v>
       </c>
       <c r="D46">
-        <v>0.02513494002256132</v>
+        <v>0.008661680730379383</v>
       </c>
       <c r="E46">
-        <v>0.02060370278456635</v>
+        <v>-0.02527441749997754</v>
       </c>
       <c r="F46">
-        <v>0.02429809189045664</v>
+        <v>0.04546078760574983</v>
       </c>
       <c r="G46">
-        <v>0.02911424873619993</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.03018306796925021</v>
+      </c>
+      <c r="H46">
+        <v>0.05143922770177046</v>
+      </c>
+      <c r="I46">
+        <v>0.0005797151331584699</v>
+      </c>
+      <c r="J46">
+        <v>-0.0191427039801284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08717415272670975</v>
+        <v>0.09208558146087585</v>
       </c>
       <c r="C47">
-        <v>-0.009262443129573845</v>
+        <v>-0.01919915317371743</v>
       </c>
       <c r="D47">
-        <v>0.0186502435654587</v>
+        <v>-0.001917911230474123</v>
       </c>
       <c r="E47">
-        <v>-0.02540154012256577</v>
+        <v>-0.02440576625178717</v>
       </c>
       <c r="F47">
-        <v>0.007166285382734354</v>
+        <v>-0.01237930141915495</v>
       </c>
       <c r="G47">
-        <v>0.02942555419904538</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04718886948654782</v>
+      </c>
+      <c r="H47">
+        <v>0.05245111663641439</v>
+      </c>
+      <c r="I47">
+        <v>-0.01395018334591647</v>
+      </c>
+      <c r="J47">
+        <v>-0.02165361325520694</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01774646033877445</v>
+        <v>0.01895424452173135</v>
       </c>
       <c r="C48">
-        <v>-0.01991395437351902</v>
+        <v>-0.01996971936685909</v>
       </c>
       <c r="D48">
-        <v>0.01551826584769196</v>
+        <v>0.007886395380756082</v>
       </c>
       <c r="E48">
-        <v>0.02826680928147305</v>
+        <v>-0.01180588830605327</v>
       </c>
       <c r="F48">
-        <v>0.01082803614820661</v>
+        <v>0.03014900466677366</v>
       </c>
       <c r="G48">
-        <v>0.00420814539066884</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01683297864709714</v>
+      </c>
+      <c r="H48">
+        <v>0.02213041025915053</v>
+      </c>
+      <c r="I48">
+        <v>-0.009705499660738515</v>
+      </c>
+      <c r="J48">
+        <v>-0.01132680908497071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08754520091289952</v>
+        <v>0.08852803371610345</v>
       </c>
       <c r="C50">
-        <v>-0.03373425597757215</v>
+        <v>-0.032643708160353</v>
       </c>
       <c r="D50">
-        <v>0.02407491199646176</v>
+        <v>0.01924990512861009</v>
       </c>
       <c r="E50">
-        <v>-0.01915668215232694</v>
+        <v>-0.02161637325877569</v>
       </c>
       <c r="F50">
-        <v>-0.003361986828031536</v>
+        <v>-0.00565816127674821</v>
       </c>
       <c r="G50">
-        <v>0.03734892761575422</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.006663446862613069</v>
+      </c>
+      <c r="H50">
+        <v>0.04017980653727206</v>
+      </c>
+      <c r="I50">
+        <v>0.01263880378780296</v>
+      </c>
+      <c r="J50">
+        <v>-0.002489273098624138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06822043198735012</v>
+        <v>0.04684533650025105</v>
       </c>
       <c r="C51">
-        <v>0.02055059323151761</v>
+        <v>-0.004192619723122576</v>
       </c>
       <c r="D51">
-        <v>-0.004314577693061684</v>
+        <v>-0.01343107975578422</v>
       </c>
       <c r="E51">
-        <v>0.0812705514993653</v>
+        <v>-0.01035286512205805</v>
       </c>
       <c r="F51">
-        <v>0.05589970850914956</v>
+        <v>0.09482244661350457</v>
       </c>
       <c r="G51">
-        <v>0.06045400839557265</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05863511880556487</v>
+      </c>
+      <c r="H51">
+        <v>0.0447583292328841</v>
+      </c>
+      <c r="I51">
+        <v>-0.02202848529804378</v>
+      </c>
+      <c r="J51">
+        <v>-0.04114190104290687</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1454303869932368</v>
+        <v>0.127459165783069</v>
       </c>
       <c r="C53">
-        <v>-0.01069116713397571</v>
+        <v>-0.03611031029042194</v>
       </c>
       <c r="D53">
-        <v>0.04197853095428594</v>
+        <v>0.001599554744091938</v>
       </c>
       <c r="E53">
-        <v>-0.04727247060519953</v>
+        <v>-0.04687609352829314</v>
       </c>
       <c r="F53">
-        <v>-0.01119784910931589</v>
+        <v>-0.04204965192741071</v>
       </c>
       <c r="G53">
-        <v>0.03466224408477051</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02539345047344294</v>
+      </c>
+      <c r="H53">
+        <v>-0.002950080056884808</v>
+      </c>
+      <c r="I53">
+        <v>-0.03379648257770126</v>
+      </c>
+      <c r="J53">
+        <v>-0.03146240450639301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02980074107606513</v>
+        <v>0.02623872126857509</v>
       </c>
       <c r="C54">
-        <v>0.002194215404687388</v>
+        <v>-0.00257223458028918</v>
       </c>
       <c r="D54">
-        <v>0.02976909414727442</v>
+        <v>0.005669956314621256</v>
       </c>
       <c r="E54">
-        <v>0.02678450237432212</v>
+        <v>-0.02636529077804295</v>
       </c>
       <c r="F54">
-        <v>0.04711774781695426</v>
+        <v>0.03752657735566811</v>
       </c>
       <c r="G54">
-        <v>0.006096422951590689</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05480812638401156</v>
+      </c>
+      <c r="H54">
+        <v>0.03809206888160337</v>
+      </c>
+      <c r="I54">
+        <v>-0.02843171254897297</v>
+      </c>
+      <c r="J54">
+        <v>0.004084354170949826</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09809688086722172</v>
+        <v>0.1008451955847224</v>
       </c>
       <c r="C55">
-        <v>0.002433615643378974</v>
+        <v>-0.01793380262846498</v>
       </c>
       <c r="D55">
-        <v>0.03470883887506186</v>
+        <v>0.01567998193192525</v>
       </c>
       <c r="E55">
-        <v>-0.007223328589718168</v>
+        <v>-0.03075398562392663</v>
       </c>
       <c r="F55">
-        <v>-0.03723039708032591</v>
+        <v>-0.02940719472609195</v>
       </c>
       <c r="G55">
-        <v>-0.01804999392708748</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.004745778185395382</v>
+      </c>
+      <c r="H55">
+        <v>0.01401037451101745</v>
+      </c>
+      <c r="I55">
+        <v>-0.01480638015675712</v>
+      </c>
+      <c r="J55">
+        <v>-0.03074229695997397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.177915389914145</v>
+        <v>0.169173257763662</v>
       </c>
       <c r="C56">
-        <v>0.01159602225667849</v>
+        <v>-0.01727289237808036</v>
       </c>
       <c r="D56">
-        <v>0.07741332544477135</v>
+        <v>0.003931752300498808</v>
       </c>
       <c r="E56">
-        <v>-0.09015371529668352</v>
+        <v>-0.08373317599509517</v>
       </c>
       <c r="F56">
-        <v>-0.08641262337408943</v>
+        <v>-0.08685618289428655</v>
       </c>
       <c r="G56">
-        <v>-0.0006694226102360028</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02945918323843415</v>
+      </c>
+      <c r="H56">
+        <v>-0.04045086743300739</v>
+      </c>
+      <c r="I56">
+        <v>-0.02650894058290942</v>
+      </c>
+      <c r="J56">
+        <v>-0.04295150988980684</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09430602856752869</v>
+        <v>0.07187523069552476</v>
       </c>
       <c r="C57">
-        <v>-0.02761320937938936</v>
+        <v>-0.04003556077565675</v>
       </c>
       <c r="D57">
-        <v>0.02086220938581816</v>
+        <v>-0.006036097187123142</v>
       </c>
       <c r="E57">
-        <v>0.04402868009395358</v>
+        <v>-0.01017330965618907</v>
       </c>
       <c r="F57">
-        <v>0.02465859425544635</v>
+        <v>0.06111302372193979</v>
       </c>
       <c r="G57">
-        <v>0.02080876984490768</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02329774155156696</v>
+      </c>
+      <c r="H57">
+        <v>0.02807633283884816</v>
+      </c>
+      <c r="I57">
+        <v>0.003906934477612441</v>
+      </c>
+      <c r="J57">
+        <v>-0.04317580877072354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1808341101513812</v>
+        <v>0.2044779998366309</v>
       </c>
       <c r="C58">
-        <v>-0.01625035381179341</v>
+        <v>-0.1117392947775714</v>
       </c>
       <c r="D58">
-        <v>-0.04620118650056705</v>
+        <v>-0.06165677504814535</v>
       </c>
       <c r="E58">
-        <v>0.1199979982450006</v>
+        <v>0.01064850196381715</v>
       </c>
       <c r="F58">
-        <v>-0.06361284771328514</v>
+        <v>0.237594699460537</v>
       </c>
       <c r="G58">
-        <v>0.02792817905898048</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1446241408201409</v>
+      </c>
+      <c r="H58">
+        <v>0.3708463624936526</v>
+      </c>
+      <c r="I58">
+        <v>0.1052337330100839</v>
+      </c>
+      <c r="J58">
+        <v>0.7659337678993323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01255564218201845</v>
+        <v>0.04013638419156068</v>
       </c>
       <c r="C59">
-        <v>0.2017798180292266</v>
+        <v>0.1807978847930891</v>
       </c>
       <c r="D59">
-        <v>0.01197385098643247</v>
+        <v>-0.0796012425159999</v>
       </c>
       <c r="E59">
-        <v>0.05670059575915698</v>
+        <v>-0.005824445814060586</v>
       </c>
       <c r="F59">
-        <v>0.01365270628202864</v>
+        <v>0.073400254355464</v>
       </c>
       <c r="G59">
-        <v>0.00999238017911863</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.005185472714695814</v>
+      </c>
+      <c r="H59">
+        <v>-0.0203622965207486</v>
+      </c>
+      <c r="I59">
+        <v>-0.05881299926516108</v>
+      </c>
+      <c r="J59">
+        <v>0.01480357706567642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1875840490475336</v>
+        <v>0.1845961745047598</v>
       </c>
       <c r="C60">
-        <v>0.1043269008748865</v>
+        <v>0.0305757047821326</v>
       </c>
       <c r="D60">
-        <v>0.009168071683508793</v>
+        <v>-0.06380846263348457</v>
       </c>
       <c r="E60">
-        <v>0.1837460764289217</v>
+        <v>-0.01323705158546317</v>
       </c>
       <c r="F60">
-        <v>0.06102557983099616</v>
+        <v>0.2068379763559468</v>
       </c>
       <c r="G60">
-        <v>0.01987547539823017</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.0939276868561945</v>
+      </c>
+      <c r="H60">
+        <v>-0.2598213206678321</v>
+      </c>
+      <c r="I60">
+        <v>0.08992114159096151</v>
+      </c>
+      <c r="J60">
+        <v>-0.0169152827357337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.05149586748095688</v>
+        <v>0.03964505571373134</v>
       </c>
       <c r="C61">
-        <v>-0.001707753860302799</v>
+        <v>-0.02402653129126811</v>
       </c>
       <c r="D61">
-        <v>-0.005321012624472502</v>
+        <v>0.007478151179288783</v>
       </c>
       <c r="E61">
-        <v>0.03668169484602416</v>
+        <v>-0.004023985713349429</v>
       </c>
       <c r="F61">
-        <v>0.007938770149825507</v>
+        <v>0.03878375712093101</v>
       </c>
       <c r="G61">
-        <v>0.003972468832678331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.008587399719134811</v>
+      </c>
+      <c r="H61">
+        <v>-0.001240667930782756</v>
+      </c>
+      <c r="I61">
+        <v>0.03660044915126246</v>
+      </c>
+      <c r="J61">
+        <v>-0.02209594883154104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04941472531309985</v>
+        <v>0.03219189329395249</v>
       </c>
       <c r="C63">
-        <v>-0.003130882254046255</v>
+        <v>-0.01869414962410865</v>
       </c>
       <c r="D63">
-        <v>0.01802103985700549</v>
+        <v>0.004021092017424062</v>
       </c>
       <c r="E63">
-        <v>0.03241548969000384</v>
+        <v>-0.013935259452666</v>
       </c>
       <c r="F63">
-        <v>0.002199182944085273</v>
+        <v>0.02708449072418685</v>
       </c>
       <c r="G63">
-        <v>0.01966174993671198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01879731893259563</v>
+      </c>
+      <c r="H63">
+        <v>0.04137130266687388</v>
+      </c>
+      <c r="I63">
+        <v>-0.02465273332592575</v>
+      </c>
+      <c r="J63">
+        <v>-0.03184659739136263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08584230697518051</v>
+        <v>0.05742632773700412</v>
       </c>
       <c r="C64">
-        <v>-0.04626703694486272</v>
+        <v>-0.04438419127792986</v>
       </c>
       <c r="D64">
-        <v>0.06056497826561554</v>
+        <v>0.02842620250543125</v>
       </c>
       <c r="E64">
-        <v>0.05542348217928924</v>
+        <v>-0.03972334304657237</v>
       </c>
       <c r="F64">
-        <v>0.06158539869948588</v>
+        <v>0.04984303923420098</v>
       </c>
       <c r="G64">
-        <v>-0.01785611026110425</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05640679393834871</v>
+      </c>
+      <c r="H64">
+        <v>-0.007567459257575985</v>
+      </c>
+      <c r="I64">
+        <v>-0.0237319635452976</v>
+      </c>
+      <c r="J64">
+        <v>-0.09664095930474947</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01936337349116138</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.007916361464909011</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.009369838711578033</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.00442809797705804</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001425625315847031</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.022748013133804</v>
+      </c>
+      <c r="H65">
+        <v>0.0006413277170749349</v>
+      </c>
+      <c r="I65">
+        <v>0.01260154293868903</v>
+      </c>
+      <c r="J65">
+        <v>-0.002119937732774508</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09510270120154155</v>
+        <v>0.06977193129676537</v>
       </c>
       <c r="C66">
-        <v>-0.02711299098373587</v>
+        <v>-0.05776714492307223</v>
       </c>
       <c r="D66">
-        <v>0.03599031354020123</v>
+        <v>0.003214444428913474</v>
       </c>
       <c r="E66">
-        <v>0.0746195286018672</v>
+        <v>-0.04208795735747232</v>
       </c>
       <c r="F66">
-        <v>0.04559563823232439</v>
+        <v>0.06971148377373619</v>
       </c>
       <c r="G66">
-        <v>0.01897439710890281</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01681801542085791</v>
+      </c>
+      <c r="H66">
+        <v>-0.001948063256735338</v>
+      </c>
+      <c r="I66">
+        <v>0.04576471829863002</v>
+      </c>
+      <c r="J66">
+        <v>-0.06964230238001907</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06300246689311839</v>
+        <v>0.0470509953342904</v>
       </c>
       <c r="C67">
-        <v>0.01412239426881108</v>
+        <v>0.002099753243213242</v>
       </c>
       <c r="D67">
-        <v>0.009789098338934227</v>
+        <v>-0.002625085176253742</v>
       </c>
       <c r="E67">
-        <v>0.02980183598121144</v>
+        <v>-0.009284028756674638</v>
       </c>
       <c r="F67">
-        <v>0.006345019396551188</v>
+        <v>0.03999577277890404</v>
       </c>
       <c r="G67">
-        <v>-0.0382669167585856</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03225935568174045</v>
+      </c>
+      <c r="H67">
+        <v>-0.01008185294793239</v>
+      </c>
+      <c r="I67">
+        <v>0.04040387507291549</v>
+      </c>
+      <c r="J67">
+        <v>-0.01019059915466529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01280752872818383</v>
+        <v>0.04588490229061545</v>
       </c>
       <c r="C68">
-        <v>0.2498799218129633</v>
+        <v>0.2226532037553918</v>
       </c>
       <c r="D68">
-        <v>-0.006011947941362889</v>
+        <v>-0.08997156185835732</v>
       </c>
       <c r="E68">
-        <v>0.03901511584118392</v>
+        <v>0.00788789190613072</v>
       </c>
       <c r="F68">
-        <v>0.003539747629437801</v>
+        <v>0.05735394226304696</v>
       </c>
       <c r="G68">
-        <v>0.02190550382278138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.001077775185398841</v>
+      </c>
+      <c r="H68">
+        <v>-0.01411829811583132</v>
+      </c>
+      <c r="I68">
+        <v>-0.1711331340649734</v>
+      </c>
+      <c r="J68">
+        <v>0.05552748521758274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.0734638576237978</v>
+        <v>0.07321599888462334</v>
       </c>
       <c r="C69">
-        <v>-0.01420616825042162</v>
+        <v>-0.02300373245173739</v>
       </c>
       <c r="D69">
-        <v>0.02115246804907524</v>
+        <v>-0.0001300626560613649</v>
       </c>
       <c r="E69">
-        <v>-0.01602129989232636</v>
+        <v>-0.02963355970983828</v>
       </c>
       <c r="F69">
-        <v>-0.001625740747452297</v>
+        <v>-0.002307847742632559</v>
       </c>
       <c r="G69">
-        <v>0.02712610913547784</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02883670353608883</v>
+      </c>
+      <c r="H69">
+        <v>0.02501211994756814</v>
+      </c>
+      <c r="I69">
+        <v>0.0081102859556409</v>
+      </c>
+      <c r="J69">
+        <v>-0.02801187856283007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.01242980596190223</v>
+        <v>0.05252868606527949</v>
       </c>
       <c r="C71">
-        <v>0.2730434236758249</v>
+        <v>0.231642792954687</v>
       </c>
       <c r="D71">
-        <v>-0.006662811135390094</v>
+        <v>-0.1004903935879045</v>
       </c>
       <c r="E71">
-        <v>0.08162477334231666</v>
+        <v>0.02623295311036263</v>
       </c>
       <c r="F71">
-        <v>0.01947759043102722</v>
+        <v>0.08354257700898658</v>
       </c>
       <c r="G71">
-        <v>0.03528862262134894</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01459363129628977</v>
+      </c>
+      <c r="H71">
+        <v>-0.03188288043224315</v>
+      </c>
+      <c r="I71">
+        <v>-0.1248590736630524</v>
+      </c>
+      <c r="J71">
+        <v>0.02077847652362771</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1165085920742168</v>
+        <v>0.1219369229426675</v>
       </c>
       <c r="C72">
-        <v>0.005028443118144143</v>
+        <v>-0.02971545696562993</v>
       </c>
       <c r="D72">
-        <v>0.03554147180673243</v>
+        <v>0.0001265506918678634</v>
       </c>
       <c r="E72">
-        <v>0.09949296341822146</v>
+        <v>-0.05853543674043862</v>
       </c>
       <c r="F72">
-        <v>-0.005872762484339513</v>
+        <v>0.08408408625013707</v>
       </c>
       <c r="G72">
-        <v>-0.02378731371194055</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04651490647922377</v>
+      </c>
+      <c r="H72">
+        <v>0.0003432264264349765</v>
+      </c>
+      <c r="I72">
+        <v>0.05354662159704851</v>
+      </c>
+      <c r="J72">
+        <v>0.08720781685191865</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2875959629020435</v>
+        <v>0.2708698977809145</v>
       </c>
       <c r="C73">
-        <v>0.1694077619930271</v>
+        <v>0.05068215113514189</v>
       </c>
       <c r="D73">
-        <v>-0.04536377362124655</v>
+        <v>-0.1180727972960549</v>
       </c>
       <c r="E73">
-        <v>0.3347249856628796</v>
+        <v>0.02766141361731276</v>
       </c>
       <c r="F73">
-        <v>0.06634921617247685</v>
+        <v>0.3130111575722371</v>
       </c>
       <c r="G73">
-        <v>0.002862284315538695</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.2054566033168397</v>
+      </c>
+      <c r="H73">
+        <v>-0.4510202985244441</v>
+      </c>
+      <c r="I73">
+        <v>0.3033508882144221</v>
+      </c>
+      <c r="J73">
+        <v>-0.0281795295423542</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1607208916669968</v>
+        <v>0.1522930761439848</v>
       </c>
       <c r="C74">
-        <v>0.001747517406213353</v>
+        <v>-0.02786632644421519</v>
       </c>
       <c r="D74">
-        <v>0.04100100416039294</v>
+        <v>-0.007734834024372113</v>
       </c>
       <c r="E74">
-        <v>-0.01718275729626291</v>
+        <v>-0.045579153774967</v>
       </c>
       <c r="F74">
-        <v>-0.06041999473994387</v>
+        <v>-0.05487020688789961</v>
       </c>
       <c r="G74">
-        <v>0.05299011525703855</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01959864483032706</v>
+      </c>
+      <c r="H74">
+        <v>-0.02851877216682782</v>
+      </c>
+      <c r="I74">
+        <v>-0.009526279481520277</v>
+      </c>
+      <c r="J74">
+        <v>-0.08391598050581764</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2329956258084561</v>
+        <v>0.2435336083287463</v>
       </c>
       <c r="C75">
-        <v>0.01172538179037426</v>
+        <v>-0.02568977413590869</v>
       </c>
       <c r="D75">
-        <v>0.06738933246507613</v>
+        <v>-0.02324886364544594</v>
       </c>
       <c r="E75">
-        <v>-0.125837218195569</v>
+        <v>-0.1051985493703756</v>
       </c>
       <c r="F75">
-        <v>-0.04976018182517311</v>
+        <v>-0.1483043177353698</v>
       </c>
       <c r="G75">
-        <v>0.04407815842897305</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.005315733929965701</v>
+      </c>
+      <c r="H75">
+        <v>-0.0224968723788863</v>
+      </c>
+      <c r="I75">
+        <v>-0.09066225307514604</v>
+      </c>
+      <c r="J75">
+        <v>-0.02717551655042766</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2446109180245349</v>
+        <v>0.2670925314605307</v>
       </c>
       <c r="C76">
-        <v>0.01278513773556825</v>
+        <v>-0.01421555105966945</v>
       </c>
       <c r="D76">
-        <v>0.103590303817148</v>
+        <v>0.01227316180000983</v>
       </c>
       <c r="E76">
-        <v>-0.1243903757620263</v>
+        <v>-0.1290669021111817</v>
       </c>
       <c r="F76">
-        <v>-0.08181174003238062</v>
+        <v>-0.1798861362692541</v>
       </c>
       <c r="G76">
-        <v>0.03921224219898589</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05129014640182442</v>
+      </c>
+      <c r="H76">
+        <v>-0.04370222977114928</v>
+      </c>
+      <c r="I76">
+        <v>-0.02324219868386619</v>
+      </c>
+      <c r="J76">
+        <v>-0.06526840078966599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1352547828743509</v>
+        <v>0.1301085859576211</v>
       </c>
       <c r="C77">
-        <v>-0.02609664549613657</v>
+        <v>-0.06821438025036307</v>
       </c>
       <c r="D77">
-        <v>-0.04626235548317088</v>
+        <v>0.01066537573160534</v>
       </c>
       <c r="E77">
-        <v>0.1472796784935264</v>
+        <v>0.04275382283229395</v>
       </c>
       <c r="F77">
-        <v>0.008080482120963937</v>
+        <v>0.1594989021275242</v>
       </c>
       <c r="G77">
-        <v>-0.06216466320775481</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.0169049642655708</v>
+      </c>
+      <c r="H77">
+        <v>0.2039676588469196</v>
+      </c>
+      <c r="I77">
+        <v>-0.184090623065707</v>
+      </c>
+      <c r="J77">
+        <v>-0.1058713159188727</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.0877206379738823</v>
+        <v>0.08143664515626875</v>
       </c>
       <c r="C78">
-        <v>-0.04209005093610728</v>
+        <v>-0.07188204031904019</v>
       </c>
       <c r="D78">
-        <v>-0.01947480752806561</v>
+        <v>0.0273833323315964</v>
       </c>
       <c r="E78">
-        <v>0.04855500379272001</v>
+        <v>-0.00261737683769653</v>
       </c>
       <c r="F78">
-        <v>0.01112976464725869</v>
+        <v>0.07177182772469266</v>
       </c>
       <c r="G78">
-        <v>0.01563952284888475</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01079983307114163</v>
+      </c>
+      <c r="H78">
+        <v>0.02781086972772676</v>
+      </c>
+      <c r="I78">
+        <v>-0.02540316308039358</v>
+      </c>
+      <c r="J78">
+        <v>-0.0449765750764184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06588760134669455</v>
+        <v>0.1518260633547162</v>
       </c>
       <c r="C80">
-        <v>-0.02264057051697204</v>
+        <v>0.344756487056459</v>
       </c>
       <c r="D80">
-        <v>-0.02140911387577588</v>
+        <v>0.9092613119452366</v>
       </c>
       <c r="E80">
-        <v>-0.01555069789510867</v>
+        <v>0.062579565890719</v>
       </c>
       <c r="F80">
-        <v>-0.1337848909752055</v>
+        <v>0.04839369222381872</v>
       </c>
       <c r="G80">
-        <v>-0.9358461484600176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04032445629140638</v>
+      </c>
+      <c r="H80">
+        <v>-0.05710885037930939</v>
+      </c>
+      <c r="I80">
+        <v>0.02739788843663223</v>
+      </c>
+      <c r="J80">
+        <v>0.1001741870971526</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1622714747058148</v>
+        <v>0.1793723988555166</v>
       </c>
       <c r="C81">
-        <v>0.01003567563859415</v>
+        <v>-0.005752547473546736</v>
       </c>
       <c r="D81">
-        <v>0.06099975089378644</v>
+        <v>-0.006385566290475676</v>
       </c>
       <c r="E81">
-        <v>-0.1540200499770359</v>
+        <v>-0.0851403345663395</v>
       </c>
       <c r="F81">
-        <v>-0.1131226147420229</v>
+        <v>-0.1643952159047548</v>
       </c>
       <c r="G81">
-        <v>0.03422496622574192</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.03055312258593469</v>
+      </c>
+      <c r="H81">
+        <v>-0.01050975445628266</v>
+      </c>
+      <c r="I81">
+        <v>-0.05499342045344328</v>
+      </c>
+      <c r="J81">
+        <v>-0.007723902198585582</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09485742819831416</v>
+        <v>0.07017107769652091</v>
       </c>
       <c r="C83">
-        <v>-0.04464838803184862</v>
+        <v>-0.0499671889731145</v>
       </c>
       <c r="D83">
-        <v>-0.07883211787605669</v>
+        <v>-9.406853020475781e-05</v>
       </c>
       <c r="E83">
-        <v>0.004538061066321508</v>
+        <v>0.03987426955215397</v>
       </c>
       <c r="F83">
-        <v>0.05669868761325682</v>
+        <v>0.04325697436855885</v>
       </c>
       <c r="G83">
-        <v>0.01489846848178461</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.06027146428298805</v>
+      </c>
+      <c r="H83">
+        <v>0.01587608925263589</v>
+      </c>
+      <c r="I83">
+        <v>-0.0208256292233476</v>
+      </c>
+      <c r="J83">
+        <v>-0.07708703612184101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.231620329635837</v>
+        <v>0.2509797538909387</v>
       </c>
       <c r="C85">
-        <v>-0.04924470523189545</v>
+        <v>-0.05063523450964247</v>
       </c>
       <c r="D85">
-        <v>0.06289739724955057</v>
+        <v>0.008272549004175936</v>
       </c>
       <c r="E85">
-        <v>-0.1520645038437855</v>
+        <v>-0.08877185133222616</v>
       </c>
       <c r="F85">
-        <v>-0.07503578829328672</v>
+        <v>-0.1853478473434196</v>
       </c>
       <c r="G85">
-        <v>0.01778428520274976</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.009262464950165956</v>
+      </c>
+      <c r="H85">
+        <v>0.01740026531707381</v>
+      </c>
+      <c r="I85">
+        <v>-0.05674459631848533</v>
+      </c>
+      <c r="J85">
+        <v>-0.07775038551214822</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04516167129971205</v>
+        <v>0.02657434060158574</v>
       </c>
       <c r="C86">
-        <v>-0.04962587545176569</v>
+        <v>-0.06292292814301839</v>
       </c>
       <c r="D86">
-        <v>0.01250145083484627</v>
+        <v>0.02154702966271028</v>
       </c>
       <c r="E86">
-        <v>0.062291595469577</v>
+        <v>-0.008892731393638597</v>
       </c>
       <c r="F86">
-        <v>0.0006119391905871597</v>
+        <v>0.06693028664709617</v>
       </c>
       <c r="G86">
-        <v>0.02856603384874788</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.007794573861678238</v>
+      </c>
+      <c r="H86">
+        <v>0.06557892294677219</v>
+      </c>
+      <c r="I86">
+        <v>-0.02853502130989169</v>
+      </c>
+      <c r="J86">
+        <v>-0.04210746488647727</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02448542990210242</v>
+        <v>0.03502841434748342</v>
       </c>
       <c r="C87">
-        <v>0.05170075521133347</v>
+        <v>0.01085009500181231</v>
       </c>
       <c r="D87">
-        <v>0.006868810859997634</v>
+        <v>-0.008344830754442875</v>
       </c>
       <c r="E87">
-        <v>0.09389906167745768</v>
+        <v>-0.003179047357315809</v>
       </c>
       <c r="F87">
-        <v>-0.01629241753318314</v>
+        <v>0.1014834176737486</v>
       </c>
       <c r="G87">
-        <v>0.03217698552968325</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02241726471026625</v>
+      </c>
+      <c r="H87">
+        <v>0.02016091403546698</v>
+      </c>
+      <c r="I87">
+        <v>0.01912351215249122</v>
+      </c>
+      <c r="J87">
+        <v>-0.01362476029937744</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.04057157860462861</v>
+        <v>0.02869066753205373</v>
       </c>
       <c r="C88">
-        <v>-0.03382378298955217</v>
+        <v>-0.01734107061317018</v>
       </c>
       <c r="D88">
-        <v>0.008960257919377592</v>
+        <v>0.01803943961928705</v>
       </c>
       <c r="E88">
-        <v>-0.01282317229335151</v>
+        <v>-0.01589004691994075</v>
       </c>
       <c r="F88">
-        <v>-0.01315100962498953</v>
+        <v>-0.01273671076763383</v>
       </c>
       <c r="G88">
-        <v>0.006993117949445538</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03907524906435511</v>
+      </c>
+      <c r="H88">
+        <v>0.03540452889535949</v>
+      </c>
+      <c r="I88">
+        <v>0.02687533150404186</v>
+      </c>
+      <c r="J88">
+        <v>-0.02989508371217295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.004444372745420219</v>
+        <v>0.0673366072014798</v>
       </c>
       <c r="C89">
-        <v>0.4178711607853032</v>
+        <v>0.3598883841915196</v>
       </c>
       <c r="D89">
-        <v>-0.09023072072911206</v>
+        <v>-0.1633030239930389</v>
       </c>
       <c r="E89">
-        <v>-0.009046365699541424</v>
+        <v>0.04408555273852696</v>
       </c>
       <c r="F89">
-        <v>0.008499916973616215</v>
+        <v>0.04183523657971298</v>
       </c>
       <c r="G89">
-        <v>0.02894475140877817</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04965538098649686</v>
+      </c>
+      <c r="H89">
+        <v>0.03859618720361347</v>
+      </c>
+      <c r="I89">
+        <v>-0.2658792768099482</v>
+      </c>
+      <c r="J89">
+        <v>0.05960251548117964</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.0003554073612313629</v>
+        <v>0.04709343475468307</v>
       </c>
       <c r="C90">
-        <v>0.3090838117715513</v>
+        <v>0.3132496813997724</v>
       </c>
       <c r="D90">
-        <v>-0.02499502534538428</v>
+        <v>-0.1241597227552016</v>
       </c>
       <c r="E90">
-        <v>0.04494924362304627</v>
+        <v>0.03221952553810833</v>
       </c>
       <c r="F90">
-        <v>0.01793113516016459</v>
+        <v>0.03835448702511122</v>
       </c>
       <c r="G90">
-        <v>0.04200463281673427</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02641213942069898</v>
+      </c>
+      <c r="H90">
+        <v>0.00287686819128061</v>
+      </c>
+      <c r="I90">
+        <v>-0.2266588519281408</v>
+      </c>
+      <c r="J90">
+        <v>0.02776543031185752</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2796163424057027</v>
+        <v>0.2978609325412587</v>
       </c>
       <c r="C91">
-        <v>-0.02374299326766865</v>
+        <v>-0.03776066784776349</v>
       </c>
       <c r="D91">
-        <v>0.06867861032570646</v>
+        <v>-0.008029705093497652</v>
       </c>
       <c r="E91">
-        <v>-0.2785446480909184</v>
+        <v>-0.08844110493146613</v>
       </c>
       <c r="F91">
-        <v>-0.1312156317672205</v>
+        <v>-0.2911386313107758</v>
       </c>
       <c r="G91">
-        <v>-0.03040650630180535</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.03158045792821423</v>
+      </c>
+      <c r="H91">
+        <v>-0.01075851204820347</v>
+      </c>
+      <c r="I91">
+        <v>-0.1197314158852117</v>
+      </c>
+      <c r="J91">
+        <v>-0.06679767052526098</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.007922243183206428</v>
+        <v>0.103895832008663</v>
       </c>
       <c r="C92">
-        <v>0.4276211008616263</v>
+        <v>0.4177320498458308</v>
       </c>
       <c r="D92">
-        <v>-0.1888623431539089</v>
+        <v>-0.1412641732225645</v>
       </c>
       <c r="E92">
-        <v>-0.134316171949539</v>
+        <v>0.06638061150234849</v>
       </c>
       <c r="F92">
-        <v>-0.07476844664903134</v>
+        <v>-0.1142746572761699</v>
       </c>
       <c r="G92">
-        <v>-0.1536274620534802</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.1107338436669195</v>
+      </c>
+      <c r="H92">
+        <v>0.4437190988131035</v>
+      </c>
+      <c r="I92">
+        <v>0.6861887182919763</v>
+      </c>
+      <c r="J92">
+        <v>-0.2593499241119729</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01223902008266562</v>
+        <v>0.05257423168821845</v>
       </c>
       <c r="C93">
-        <v>0.3731650705168049</v>
+        <v>0.3753657298845366</v>
       </c>
       <c r="D93">
-        <v>-0.06559563206218397</v>
+        <v>-0.163517903261672</v>
       </c>
       <c r="E93">
-        <v>-0.02532909500981666</v>
+        <v>0.06099482744823667</v>
       </c>
       <c r="F93">
-        <v>-0.009391441780146148</v>
+        <v>0.008741328163875425</v>
       </c>
       <c r="G93">
-        <v>-0.03847188636736463</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03493567110506752</v>
+      </c>
+      <c r="H93">
+        <v>-0.02847261556962553</v>
+      </c>
+      <c r="I93">
+        <v>-0.1726966524029324</v>
+      </c>
+      <c r="J93">
+        <v>0.05687250052437406</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2731253500241293</v>
+        <v>0.3030923037325786</v>
       </c>
       <c r="C94">
-        <v>0.06650406805027924</v>
+        <v>0.002848800705962768</v>
       </c>
       <c r="D94">
-        <v>0.03084605449782736</v>
+        <v>-0.04746148807008538</v>
       </c>
       <c r="E94">
-        <v>-0.3423579989062175</v>
+        <v>-0.1327673557260494</v>
       </c>
       <c r="F94">
-        <v>-0.4232298960254815</v>
+        <v>-0.3415809613644773</v>
       </c>
       <c r="G94">
-        <v>0.1296513028956175</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1923566799071036</v>
+      </c>
+      <c r="H94">
+        <v>0.1555768849543367</v>
+      </c>
+      <c r="I94">
+        <v>-0.02427926471479892</v>
+      </c>
+      <c r="J94">
+        <v>0.1646416764089424</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.2002255297330549</v>
+        <v>0.1302827123221589</v>
       </c>
       <c r="C95">
-        <v>0.02688853684812424</v>
+        <v>-0.07621409132624175</v>
       </c>
       <c r="D95">
-        <v>0.00269060894327979</v>
+        <v>-0.07664010296153441</v>
       </c>
       <c r="E95">
-        <v>-0.4322054439761035</v>
+        <v>-0.02958943171573487</v>
       </c>
       <c r="F95">
-        <v>0.8178340797828139</v>
+        <v>-0.07554768920818221</v>
       </c>
       <c r="G95">
-        <v>-0.09371355771868781</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8833812394761863</v>
+      </c>
+      <c r="H95">
+        <v>-0.2246257937724848</v>
+      </c>
+      <c r="I95">
+        <v>0.1022896193247691</v>
+      </c>
+      <c r="J95">
+        <v>0.2627565325125515</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2229744015039686</v>
+        <v>0.2111723768205775</v>
       </c>
       <c r="C98">
-        <v>0.1217242873697285</v>
+        <v>0.03751740265741461</v>
       </c>
       <c r="D98">
-        <v>-0.05054898522960095</v>
+        <v>-0.08382078717749109</v>
       </c>
       <c r="E98">
-        <v>0.0876996909125185</v>
+        <v>0.02613986755808718</v>
       </c>
       <c r="F98">
-        <v>0.05820729032607289</v>
+        <v>0.1616756183169878</v>
       </c>
       <c r="G98">
-        <v>0.0569311737656874</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1021710611086491</v>
+      </c>
+      <c r="H98">
+        <v>-0.3191325513767478</v>
+      </c>
+      <c r="I98">
+        <v>0.1665207746988404</v>
+      </c>
+      <c r="J98">
+        <v>0.04035073291744669</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02433432305146187</v>
+        <v>0.01575709373640202</v>
       </c>
       <c r="C101">
-        <v>-0.01753524032634644</v>
+        <v>-0.02932083636828762</v>
       </c>
       <c r="D101">
-        <v>0.02818110572991697</v>
+        <v>0.01562424097568741</v>
       </c>
       <c r="E101">
-        <v>0.02218888814969316</v>
+        <v>-0.03165343169228525</v>
       </c>
       <c r="F101">
-        <v>0.01411596837636714</v>
+        <v>0.06503928741007885</v>
       </c>
       <c r="G101">
-        <v>0.01897980740362481</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.02421049619785047</v>
+      </c>
+      <c r="H101">
+        <v>0.1080853212109186</v>
+      </c>
+      <c r="I101">
+        <v>0.04408025529288312</v>
+      </c>
+      <c r="J101">
+        <v>0.115170492442491</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1183090633660879</v>
+        <v>0.1199662974507017</v>
       </c>
       <c r="C102">
-        <v>-0.01412896564769619</v>
+        <v>-0.02217017672767057</v>
       </c>
       <c r="D102">
-        <v>0.04046127962954407</v>
+        <v>0.008664237768112407</v>
       </c>
       <c r="E102">
-        <v>-0.08571480648549748</v>
+        <v>-0.05216338483735716</v>
       </c>
       <c r="F102">
-        <v>-0.008442236255182896</v>
+        <v>-0.09767689148566631</v>
       </c>
       <c r="G102">
-        <v>-0.00767831192474265</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.01848681738855679</v>
+      </c>
+      <c r="H102">
+        <v>-0.02255084894382736</v>
+      </c>
+      <c r="I102">
+        <v>-0.04649593776744988</v>
+      </c>
+      <c r="J102">
+        <v>-0.0376038013384183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.02037207481813497</v>
+        <v>0.03278440185870057</v>
       </c>
       <c r="C103">
-        <v>-0.0002653569361226098</v>
+        <v>-0.005087997284273856</v>
       </c>
       <c r="D103">
-        <v>0.01374054148241386</v>
+        <v>0.01002408056511146</v>
       </c>
       <c r="E103">
-        <v>-0.03385318630444856</v>
+        <v>-0.02149824450328644</v>
       </c>
       <c r="F103">
-        <v>-0.01924012320095472</v>
+        <v>-0.02923126381946045</v>
       </c>
       <c r="G103">
-        <v>0.01468001801658651</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01401255712366819</v>
+      </c>
+      <c r="H103">
+        <v>0.01399972902269182</v>
+      </c>
+      <c r="I103">
+        <v>-0.03168892111370037</v>
+      </c>
+      <c r="J103">
+        <v>-0.009828027331515086</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
